--- a/data/respuestas_esperadas.xlsx
+++ b/data/respuestas_esperadas.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="123">
   <si>
     <t xml:space="preserve">Call Center Sentiment Analysis Data</t>
   </si>
@@ -55,6 +55,15 @@
     <t xml:space="preserve">Duración Llamada (Minutos)</t>
   </si>
   <si>
+    <t xml:space="preserve">Respuesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZPZ-31710059</t>
   </si>
   <si>
@@ -73,6 +82,12 @@
     <t xml:space="preserve">Call-Center</t>
   </si>
   <si>
+    <t xml:space="preserve">1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuantos ID tiene la base de datos</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESF-57588548</t>
   </si>
   <si>
@@ -88,6 +103,15 @@
     <t xml:space="preserve">Web</t>
   </si>
   <si>
+    <t xml:space="preserve">Modifique la plantilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia el nombre de la columna 'Seguimiento' por 'Sentimiento'</t>
+  </si>
+  <si>
     <t xml:space="preserve">PJL-11752230</t>
   </si>
   <si>
@@ -95,6 +119,12 @@
   </si>
   <si>
     <t xml:space="preserve">South Lake Tahoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la tabla, proceda a centrar el contenido de todas las celdas</t>
   </si>
   <si>
     <t xml:space="preserve">PIS-39858047</t>
@@ -109,6 +139,12 @@
     <t xml:space="preserve">Chatbot</t>
   </si>
   <si>
+    <t xml:space="preserve">4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la tabla, ajusta el ancho de las columnas para que el texto completo sea visible</t>
+  </si>
+  <si>
     <t xml:space="preserve">MHK-38443501</t>
   </si>
   <si>
@@ -119,6 +155,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tuscaloosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcula el número total de llamadas registradas en la tabla</t>
   </si>
   <si>
     <t xml:space="preserve">CAZ-10660311</t>
@@ -133,10 +175,22 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
+    <t xml:space="preserve">6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliza la función 'Dar formato como tabla' en la tabla.</t>
+  </si>
+  <si>
     <t xml:space="preserve">TQC-88855863</t>
   </si>
   <si>
     <t xml:space="preserve">Erminia Lummasana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuántas llamadas tuvieron un Sentimiento 'Very Positive'</t>
   </si>
   <si>
     <t xml:space="preserve">PAT-23706620</t>
@@ -148,10 +202,22 @@
     <t xml:space="preserve">Johnstown</t>
   </si>
   <si>
+    <t xml:space="preserve">8.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcula la duración promedio de las llamadas</t>
+  </si>
+  <si>
     <t xml:space="preserve">TQC-87755863</t>
   </si>
   <si>
     <t xml:space="preserve">Nari Lummasana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la tabla, ajusta el formato fecha a 'dd/mm/yyyy'</t>
   </si>
   <si>
     <t xml:space="preserve">PAT-23705620</t>
@@ -160,10 +226,22 @@
     <t xml:space="preserve">Gustavo Cerati</t>
   </si>
   <si>
+    <t xml:space="preserve">10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordena la tabla por 'Puntuación' de mayor a menor y dime ¿Cuál es el puntaje máximo?</t>
+  </si>
+  <si>
     <t xml:space="preserve">TQC-88859863</t>
   </si>
   <si>
     <t xml:space="preserve">Erminia Soto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuantas llamadas hay con ese puntaje Máximo</t>
   </si>
   <si>
     <t xml:space="preserve">PAT-23708620</t>
@@ -172,10 +250,22 @@
     <t xml:space="preserve">Caetano Veloso</t>
   </si>
   <si>
+    <t xml:space="preserve">12.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si el 'ID' de un cliente es PJL-11752230. Dime cual es el nombre y apellido al que corresponde</t>
+  </si>
+  <si>
     <t xml:space="preserve">TMC-87755863</t>
   </si>
   <si>
     <t xml:space="preserve">Nari Luna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la tabla, resalta en Rojo las celdas de la columna 'Puntuación' que sean inferiores a 5</t>
   </si>
   <si>
     <t xml:space="preserve">PIT-23705624</t>
@@ -315,11 +405,12 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -366,8 +457,15 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +482,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF272760"/>
         <bgColor rgb="FF333399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
@@ -434,7 +538,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -471,6 +575,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -487,7 +595,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -640,9 +764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>215280</xdr:colOff>
+      <xdr:colOff>214560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -656,7 +780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="769680" y="47520"/>
-          <a:ext cx="1541880" cy="970560"/>
+          <a:ext cx="1541160" cy="969840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -679,10 +803,10 @@
   <dimension ref="A1:S998"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6:D35"/>
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.58"/>
@@ -692,11 +816,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="13" style="0" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="84.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="0" width="11.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -816,9 +943,15 @@
         <v>9</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="M5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -827,37 +960,43 @@
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="11" t="n">
         <v>45294</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="11" t="n">
+      <c r="H6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -866,37 +1005,43 @@
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="n">
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="11" t="n">
         <v>45305</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="11" t="n">
+      <c r="H7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -905,37 +1050,43 @@
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="n">
+      <c r="C8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="11" t="n">
         <v>45309</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="11" t="n">
+      <c r="K8" s="12" t="n">
         <v>43</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -944,37 +1095,43 @@
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="J9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" s="10" t="n">
-        <v>45292</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="11" t="n">
-        <v>14</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="N9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -983,37 +1140,43 @@
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" s="11" t="n">
+        <v>45293</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="F10" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G10" s="10" t="n">
-        <v>45293</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="11" t="n">
-        <v>26</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="N10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1022,37 +1185,43 @@
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="9" t="n">
+      <c r="C11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="11" t="n">
         <v>45305</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="11" t="n">
+      <c r="H11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1061,37 +1230,43 @@
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="9" t="n">
+      <c r="C12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="11" t="n">
         <v>45310</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="11" t="n">
+      <c r="H12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1100,37 +1275,43 @@
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="9" t="n">
+      <c r="C13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="11" t="n">
         <v>45311</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="11" t="n">
+      <c r="H13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14" t="n">
+        <v>27</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1139,37 +1320,43 @@
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>45310</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="12" t="n">
         <v>41</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="G14" s="10" t="n">
-        <v>45310</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="11" t="n">
-        <v>41</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1178,37 +1365,43 @@
     <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="9" t="n">
+      <c r="C15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="G15" s="10" t="n">
+      <c r="G15" s="11" t="n">
         <v>45311</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="11" t="n">
+      <c r="H15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1217,37 +1410,43 @@
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="9" t="n">
+      <c r="C16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="G16" s="10" t="n">
+      <c r="G16" s="11" t="n">
         <v>45310</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="11" t="n">
+      <c r="H16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1256,37 +1455,43 @@
     <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>45311</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="G17" s="10" t="n">
-        <v>45311</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="N17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1295,37 +1500,43 @@
     <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" s="11" t="n">
+        <v>45310</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="G18" s="10" t="n">
-        <v>45310</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="11" t="n">
+      <c r="K18" s="12" t="n">
         <v>41</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -1334,34 +1545,34 @@
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="9" t="n">
+      <c r="C19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="G19" s="10" t="n">
+      <c r="G19" s="11" t="n">
         <v>45311</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="11" t="n">
+      <c r="H19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="L19" s="12"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1373,34 +1584,34 @@
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="9" t="n">
+      <c r="C20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="G20" s="10" t="n">
+      <c r="G20" s="11" t="n">
         <v>45304</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="11" t="n">
+      <c r="K20" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="L20" s="12"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1412,31 +1623,31 @@
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="9" t="n">
+      <c r="C21" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="G21" s="10" t="n">
+      <c r="G21" s="11" t="n">
         <v>45306</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="11" t="n">
+      <c r="H21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="12" t="n">
         <v>34</v>
       </c>
       <c r="L21" s="2"/>
@@ -1451,31 +1662,31 @@
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="9" t="n">
+      <c r="C22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="G22" s="10" t="n">
+      <c r="G22" s="11" t="n">
         <v>45309</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="11" t="n">
+      <c r="H22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="12" t="n">
         <v>6</v>
       </c>
       <c r="L22" s="2"/>
@@ -1490,31 +1701,31 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="9" t="n">
+      <c r="C23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G23" s="10" t="n">
+      <c r="G23" s="11" t="n">
         <v>45306</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="11" t="n">
+      <c r="H23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="12" t="n">
         <v>25</v>
       </c>
       <c r="L23" s="2"/>
@@ -1529,31 +1740,31 @@
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="13" t="n">
+      <c r="C24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G24" s="10" t="n">
+      <c r="G24" s="11" t="n">
         <v>45310</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="11" t="n">
+      <c r="H24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="12" t="n">
         <v>27</v>
       </c>
       <c r="L24" s="2"/>
@@ -1568,31 +1779,31 @@
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="13" t="n">
+      <c r="C25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="10" t="n">
+      <c r="G25" s="11" t="n">
         <v>45311</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="11" t="n">
+      <c r="H25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="12" t="n">
         <v>30</v>
       </c>
       <c r="L25" s="2"/>
@@ -1607,31 +1818,31 @@
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="13" t="n">
+      <c r="C26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G26" s="10" t="n">
+      <c r="G26" s="11" t="n">
         <v>45310</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="11" t="n">
+      <c r="H26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="12" t="n">
         <v>27</v>
       </c>
       <c r="L26" s="2"/>
@@ -1646,31 +1857,31 @@
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="13" t="n">
+      <c r="C27" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G27" s="10" t="n">
+      <c r="G27" s="11" t="n">
         <v>45311</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="11" t="n">
+      <c r="H27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="12" t="n">
         <v>30</v>
       </c>
       <c r="L27" s="2"/>
@@ -1685,31 +1896,31 @@
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="13" t="n">
+      <c r="C28" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G28" s="10" t="n">
+      <c r="G28" s="11" t="n">
         <v>45310</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="11" t="n">
+      <c r="H28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="12" t="n">
         <v>27</v>
       </c>
       <c r="L28" s="2"/>
@@ -1724,31 +1935,31 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="13" t="n">
+      <c r="C29" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G29" s="10" t="n">
+      <c r="G29" s="11" t="n">
         <v>45311</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="11" t="n">
+      <c r="H29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="12" t="n">
         <v>31</v>
       </c>
       <c r="L29" s="2"/>
@@ -1763,31 +1974,31 @@
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="13" t="n">
+      <c r="C30" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G30" s="10" t="n">
+      <c r="G30" s="11" t="n">
         <v>45310</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="11" t="n">
+      <c r="H30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="12" t="n">
         <v>27</v>
       </c>
       <c r="L30" s="2"/>
@@ -1802,31 +2013,31 @@
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="13" t="n">
+      <c r="C31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G31" s="10" t="n">
+      <c r="G31" s="11" t="n">
         <v>45311</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="11" t="n">
+      <c r="H31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="12" t="n">
         <v>30</v>
       </c>
       <c r="L31" s="2"/>
@@ -1841,31 +2052,31 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="13" t="n">
+      <c r="C32" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="10" t="n">
+      <c r="G32" s="11" t="n">
         <v>45312</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" s="11" t="n">
+      <c r="H32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="12" t="n">
         <v>36</v>
       </c>
       <c r="L32" s="2"/>
@@ -1880,31 +2091,31 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="13" t="n">
+      <c r="C33" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="G33" s="10" t="n">
+      <c r="G33" s="11" t="n">
         <v>45312</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="11" t="n">
+      <c r="H33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="12" t="n">
         <v>36</v>
       </c>
       <c r="L33" s="2"/>
@@ -1919,31 +2130,31 @@
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="13" t="n">
+      <c r="C34" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="G34" s="10" t="n">
+      <c r="G34" s="11" t="n">
         <v>45312</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" s="11" t="n">
+      <c r="H34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="12" t="n">
         <v>36</v>
       </c>
       <c r="L34" s="2"/>
@@ -1958,31 +2169,31 @@
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="13" t="n">
+      <c r="C35" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="G35" s="10" t="n">
+      <c r="G35" s="11" t="n">
         <v>45312</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K35" s="11" t="n">
+      <c r="H35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="12" t="n">
         <v>36</v>
       </c>
       <c r="L35" s="2"/>
@@ -2004,10 +2215,10 @@
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K36" s="14" t="n">
+      <c r="J36" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="19" t="n">
         <f aca="false">AVERAGE(K6:K35)</f>
         <v>26.9666666666667</v>
       </c>
